--- a/docs/IMR-SampleSubmissionSheet_v20(LASTNAME_MMMDD).xlsx
+++ b/docs/IMR-SampleSubmissionSheet_v20(LASTNAME_MMMDD).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61B63EF-3307-4E73-8FB8-029F6811EEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F61474B-459C-4DEA-8638-E279B0BCA5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS (read first)" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="201">
   <si>
     <t xml:space="preserve">Plate 1 </t>
   </si>
@@ -613,9 +613,6 @@
   </si>
   <si>
     <t>spec A260/280 and A260/230 ratios as close to 1.8 and 2.0 as possible (or over), since library prep (Nextera Flex) is sensitive to DNA quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MiSeq - ~0.9 million PE 300+300 bp reads = 540 Mb/genome</t>
   </si>
   <si>
     <t>and sequencing)</t>
@@ -1396,9 +1393,6 @@
     <t xml:space="preserve"> Sequel 2 - whole cell = ~4 million long reads = 100 Gb/sample</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sequel 2 - long-reads of variable size = ~2.0 Gb/genome</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1455,9 +1449,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Sequel 2 - shallow = ~80,000 long reads = 2 Gb/sample</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NextSeq - ~6 million PE 150+150 bp reads = 1.8 Gb/genome</t>
   </si>
   <si>
     <t>Sample</t>
@@ -1640,6 +1631,21 @@
   </si>
   <si>
     <t>Integrated Microbiome Resource (IMR) Submission Template v.20 (Jul.2024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MiSeq bacteria - ~0.9 million PE 300+300 bp reads = 540 Mb/genome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sequel2 bacteria - long-reads of variable size = ~2.0 Gb/genome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NextSeq fungal - ~12 million PE 150+150 bp reads = 3.6 Gb/genome</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sequel2 fungal - long-reads of variable size = ~20 Gb/genome</t>
+  </si>
+  <si>
+    <t>Microeukaryotes: please specify in Notes</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +1835,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2044,12 +2050,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2075,6 +2075,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2353,7 +2371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2516,10 +2534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2562,7 +2577,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2577,10 +2592,10 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2595,7 +2610,7 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2604,8 +2619,8 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2683,15 +2698,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2703,6 +2718,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3062,7 +3083,7 @@
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -3080,7 +3101,7 @@
     <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -3090,7 +3111,7 @@
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -3110,7 +3131,7 @@
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="56.25" x14ac:dyDescent="0.3">
@@ -3120,17 +3141,17 @@
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -3175,21 +3196,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
+      <c r="A3" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
@@ -3197,7 +3218,7 @@
         <v>67</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -3224,39 +3245,39 @@
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
-      <c r="B9" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="103"/>
+      <c r="B9" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="102"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
-      <c r="B10" s="104" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="104"/>
+      <c r="B10" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="103"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -3264,7 +3285,7 @@
         <v>68</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -3279,18 +3300,18 @@
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -3298,7 +3319,7 @@
         <v>68</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -3313,15 +3334,15 @@
       <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="101" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
+      <c r="A22" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" s="10"/>
     </row>
@@ -3330,15 +3351,15 @@
       <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="101" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
+      <c r="A25" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C26" s="10"/>
     </row>
@@ -3346,18 +3367,18 @@
       <c r="A27" s="8"/>
     </row>
     <row r="28" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
+      <c r="A28" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
     </row>
     <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -3365,7 +3386,7 @@
         <v>68</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -3373,27 +3394,27 @@
         <v>69</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="98" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
+      <c r="A33" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
     </row>
     <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3432,86 +3453,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
+      <c r="A1" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
-      <c r="J3" s="110" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="J3" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="114"/>
-      <c r="J4" s="110" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113"/>
+      <c r="J4" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
@@ -3519,132 +3540,132 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="108"/>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="108"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="114"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="108"/>
+      <c r="A6" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="113"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="107"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="114"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="108"/>
-      <c r="X7" s="108"/>
-      <c r="Y7" s="108"/>
-      <c r="Z7" s="108"/>
-      <c r="AA7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="113"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="117"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="108"/>
-      <c r="AA8" s="108"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="116"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="120"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="108"/>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="108"/>
-      <c r="AA9" s="108"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="119"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -3655,31 +3676,31 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="108"/>
-      <c r="Y10" s="108"/>
-      <c r="Z10" s="108"/>
-      <c r="AA10" s="108"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="107"/>
     </row>
     <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
-        <v>115</v>
+      <c r="A11" s="104" t="s">
+        <v>114</v>
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
-      <c r="E11" s="75" t="s">
-        <v>146</v>
+      <c r="E11" s="74" t="s">
+        <v>145</v>
       </c>
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
@@ -3687,107 +3708,107 @@
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
       <c r="K11" s="47"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="108"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="108"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="108"/>
-      <c r="AA11" s="108"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="107"/>
     </row>
     <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="105"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="43"/>
       <c r="D12" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I12" s="106" t="s">
-        <v>147</v>
-      </c>
-      <c r="J12" s="106"/>
-      <c r="K12" s="107"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="108"/>
-      <c r="Y12" s="108"/>
-      <c r="Z12" s="108"/>
-      <c r="AA12" s="108"/>
+        <v>136</v>
+      </c>
+      <c r="I12" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="105"/>
+      <c r="K12" s="106"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="105"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="43"/>
       <c r="D13" s="2"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="107"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="108"/>
-      <c r="V13" s="108"/>
-      <c r="W13" s="108"/>
-      <c r="X13" s="108"/>
-      <c r="Y13" s="108"/>
-      <c r="Z13" s="108"/>
-      <c r="AA13" s="108"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="106"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="107"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="105"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="42"/>
       <c r="D14" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="107"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="108"/>
-      <c r="U14" s="108"/>
-      <c r="V14" s="108"/>
-      <c r="W14" s="108"/>
-      <c r="X14" s="108"/>
-      <c r="Y14" s="108"/>
-      <c r="Z14" s="108"/>
-      <c r="AA14" s="108"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="106"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="107"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="105"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="42"/>
       <c r="D15" s="6"/>
       <c r="E15" s="22"/>
@@ -3795,9 +3816,9 @@
         <v>40</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="107"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="106"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -3814,19 +3835,19 @@
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="105"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="42"/>
       <c r="C16"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="76"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="107"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="106"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -3843,7 +3864,7 @@
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="105"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="42"/>
       <c r="C17"/>
       <c r="D17" s="6"/>
@@ -3853,9 +3874,9 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="107"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="106"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -3871,7 +3892,7 @@
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="105"/>
+      <c r="A18" s="104"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -3879,18 +3900,18 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="107"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="106"/>
       <c r="L18"/>
       <c r="M18"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="105"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="42"/>
       <c r="C19"/>
       <c r="D19" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="2" t="s">
@@ -3916,7 +3937,7 @@
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="105"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="42"/>
       <c r="C20"/>
       <c r="D20" s="6"/>
@@ -3943,11 +3964,11 @@
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="42"/>
       <c r="C21"/>
       <c r="D21" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="2" t="s">
@@ -3957,28 +3978,28 @@
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K21" s="31"/>
-      <c r="L21" s="65" t="s">
-        <v>138</v>
+      <c r="L21" s="64" t="s">
+        <v>137</v>
       </c>
       <c r="N21" s="34"/>
-      <c r="O21" s="65" t="s">
+      <c r="O21" s="64" t="s">
         <v>95</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="35"/>
-      <c r="R21" s="65" t="s">
-        <v>140</v>
+      <c r="R21" s="64" t="s">
+        <v>139</v>
       </c>
       <c r="T21" s="39"/>
-      <c r="U21" s="65" t="s">
-        <v>143</v>
+      <c r="U21" s="64" t="s">
+        <v>142</v>
       </c>
       <c r="V21" s="3"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="65" t="s">
+      <c r="W21" s="88"/>
+      <c r="X21" s="64" t="s">
         <v>97</v>
       </c>
       <c r="Y21" s="3"/>
@@ -3986,7 +4007,7 @@
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="42"/>
       <c r="C22"/>
       <c r="D22" s="2"/>
@@ -3996,61 +4017,61 @@
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K22" s="32"/>
-      <c r="L22" s="65" t="s">
-        <v>139</v>
+      <c r="L22" s="64" t="s">
+        <v>138</v>
       </c>
       <c r="N22" s="38"/>
-      <c r="O22" s="65" t="s">
+      <c r="O22" s="64" t="s">
         <v>96</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="36"/>
-      <c r="R22" s="65" t="s">
-        <v>141</v>
+      <c r="R22" s="64" t="s">
+        <v>140</v>
       </c>
       <c r="S22" s="3"/>
-      <c r="U22" s="66"/>
+      <c r="U22" s="65"/>
       <c r="V22" s="3"/>
       <c r="W22" s="41"/>
-      <c r="X22" s="65" t="s">
-        <v>144</v>
+      <c r="X22" s="64" t="s">
+        <v>143</v>
       </c>
       <c r="Y22" s="3"/>
       <c r="Z22" s="49"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="105"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="42"/>
       <c r="C23"/>
       <c r="D23" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K23" s="33"/>
-      <c r="L23" s="65" t="s">
+      <c r="L23" s="64" t="s">
         <v>94</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="37"/>
-      <c r="R23" s="65" t="s">
-        <v>142</v>
+      <c r="R23" s="64" t="s">
+        <v>141</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="40"/>
-      <c r="U23" s="65" t="s">
+      <c r="U23" s="64" t="s">
         <v>93</v>
       </c>
       <c r="V23" s="3"/>
@@ -4061,7 +4082,7 @@
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="105"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="50"/>
       <c r="C24" s="51"/>
       <c r="D24" s="52"/>
@@ -4110,30 +4131,30 @@
       <c r="B26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="69"/>
+      <c r="C26" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="68"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
@@ -4141,8 +4162,8 @@
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="70" t="s">
-        <v>133</v>
+      <c r="C27" s="69" t="s">
+        <v>132</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -4164,7 +4185,7 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="71"/>
+      <c r="X27" s="70"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
@@ -4172,8 +4193,8 @@
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="70" t="s">
-        <v>128</v>
+      <c r="C28" s="69" t="s">
+        <v>127</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -4195,7 +4216,7 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
-      <c r="X28" s="71"/>
+      <c r="X28" s="70"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
@@ -4203,8 +4224,8 @@
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="70" t="s">
-        <v>129</v>
+      <c r="C29" s="69" t="s">
+        <v>128</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -4226,7 +4247,7 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
-      <c r="X29" s="71"/>
+      <c r="X29" s="70"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
@@ -4234,64 +4255,64 @@
     <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="73"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="74"/>
+      <c r="C30" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="73"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="32" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="64"/>
-      <c r="U32" s="64"/>
-      <c r="V32" s="64"/>
-      <c r="W32" s="64"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="64"/>
-      <c r="AA32" s="64"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="63"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -4905,35 +4926,35 @@
       <c r="J56" s="13"/>
     </row>
     <row r="59" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="64"/>
-      <c r="M59" s="64"/>
-      <c r="N59" s="64"/>
-      <c r="O59" s="64"/>
-      <c r="P59" s="64"/>
-      <c r="Q59" s="64"/>
-      <c r="R59" s="64"/>
-      <c r="S59" s="64"/>
-      <c r="T59" s="64"/>
-      <c r="U59" s="64"/>
-      <c r="V59" s="64"/>
-      <c r="W59" s="64"/>
-      <c r="X59" s="64"/>
-      <c r="Y59" s="64"/>
-      <c r="Z59" s="64"/>
-      <c r="AA59" s="64"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="63"/>
+      <c r="O59" s="63"/>
+      <c r="P59" s="63"/>
+      <c r="Q59" s="63"/>
+      <c r="R59" s="63"/>
+      <c r="S59" s="63"/>
+      <c r="T59" s="63"/>
+      <c r="U59" s="63"/>
+      <c r="V59" s="63"/>
+      <c r="W59" s="63"/>
+      <c r="X59" s="63"/>
+      <c r="Y59" s="63"/>
+      <c r="Z59" s="63"/>
+      <c r="AA59" s="63"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -5501,86 +5522,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
+      <c r="A1" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
-      <c r="J3" s="110" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="J3" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="114"/>
-      <c r="J4" s="110" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113"/>
+      <c r="J4" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
@@ -5588,132 +5609,132 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="108"/>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="108"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="114"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="108"/>
+      <c r="A6" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="113"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="107"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="114"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="108"/>
-      <c r="X7" s="108"/>
-      <c r="Y7" s="108"/>
-      <c r="Z7" s="108"/>
-      <c r="AA7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="113"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="117"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="108"/>
-      <c r="AA8" s="108"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="116"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="120"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="108"/>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="108"/>
-      <c r="AA9" s="108"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="119"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -5724,21 +5745,21 @@
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
       <c r="H10"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="108"/>
-      <c r="Y10" s="108"/>
-      <c r="Z10" s="108"/>
-      <c r="AA10" s="108"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="107"/>
     </row>
     <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -5753,110 +5774,110 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="108"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="108"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="108"/>
-      <c r="AA11" s="108"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="107"/>
     </row>
     <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="122" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
+      <c r="C12" s="121" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
       <c r="L12"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="108"/>
-      <c r="Y12" s="108"/>
-      <c r="Z12" s="108"/>
-      <c r="AA12" s="108"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
       <c r="L13"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="108"/>
-      <c r="V13" s="108"/>
-      <c r="W13" s="108"/>
-      <c r="X13" s="108"/>
-      <c r="Y13" s="108"/>
-      <c r="Z13" s="108"/>
-      <c r="AA13" s="108"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="107"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
       <c r="L14"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="108"/>
-      <c r="U14" s="108"/>
-      <c r="V14" s="108"/>
-      <c r="W14" s="108"/>
-      <c r="X14" s="108"/>
-      <c r="Y14" s="108"/>
-      <c r="Z14" s="108"/>
-      <c r="AA14" s="108"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="107"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -5912,37 +5933,37 @@
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="123" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="124"/>
+      <c r="A17" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="123"/>
       <c r="E17" s="44"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="75" t="s">
-        <v>164</v>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="74" t="s">
+        <v>163</v>
       </c>
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
       <c r="K17" s="46"/>
       <c r="L17" s="46"/>
-      <c r="M17" s="75" t="s">
-        <v>164</v>
+      <c r="M17" s="74" t="s">
+        <v>163</v>
       </c>
       <c r="N17" s="46"/>
       <c r="O17" s="46"/>
       <c r="P17" s="46"/>
       <c r="Q17" s="46"/>
-      <c r="R17" s="75" t="s">
-        <v>164</v>
+      <c r="R17" s="74" t="s">
+        <v>163</v>
       </c>
       <c r="S17" s="46"/>
       <c r="T17" s="46"/>
       <c r="U17" s="46"/>
-      <c r="V17" s="75" t="s">
-        <v>164</v>
+      <c r="V17" s="74" t="s">
+        <v>163</v>
       </c>
       <c r="W17" s="47"/>
       <c r="X17" s="3"/>
@@ -5950,46 +5971,46 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="123"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="62"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="61"/>
       <c r="F18"/>
       <c r="G18" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="88"/>
+        <v>115</v>
+      </c>
+      <c r="H18" s="87"/>
       <c r="I18" s="6"/>
       <c r="J18" s="7"/>
       <c r="K18"/>
       <c r="L18" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="M18" s="87"/>
+        <v>120</v>
+      </c>
+      <c r="M18" s="86"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="R18" s="86"/>
+        <v>121</v>
+      </c>
+      <c r="R18" s="85"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="V18" s="59"/>
+        <v>166</v>
+      </c>
+      <c r="V18" s="58"/>
       <c r="W18" s="49"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="124"/>
+      <c r="A19" s="122"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
       <c r="E19" s="50"/>
       <c r="F19" s="53"/>
       <c r="G19" s="54"/>
@@ -6030,192 +6051,192 @@
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="110"/>
-      <c r="C21" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="81"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="80" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="81"/>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="81"/>
+      <c r="C22" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="80"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="82"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="81"/>
-      <c r="AA23" s="81"/>
+      <c r="C23" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="80"/>
+      <c r="Z23" s="80"/>
+      <c r="AA23" s="80"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="80" t="s">
-        <v>129</v>
-      </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="81"/>
-      <c r="V24" s="81"/>
-      <c r="W24" s="81"/>
-      <c r="X24" s="82"/>
-      <c r="Y24" s="81"/>
-      <c r="Z24" s="81"/>
-      <c r="AA24" s="81"/>
+      <c r="C24" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="80"/>
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="80"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="85"/>
-      <c r="Y25" s="81"/>
-      <c r="Z25" s="81"/>
-      <c r="AA25" s="81"/>
+      <c r="C25" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="83"/>
+      <c r="S25" s="83"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="83"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="80"/>
+      <c r="Z25" s="80"/>
+      <c r="AA25" s="80"/>
     </row>
     <row r="27" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="121"/>
-      <c r="R27" s="121"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="121"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="121"/>
-      <c r="W27" s="121"/>
-      <c r="X27" s="121"/>
-      <c r="Y27" s="121"/>
-      <c r="Z27" s="121"/>
-      <c r="AA27" s="121"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="120"/>
+      <c r="H27" s="120"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="120"/>
+      <c r="S27" s="120"/>
+      <c r="T27" s="120"/>
+      <c r="U27" s="120"/>
+      <c r="V27" s="120"/>
+      <c r="W27" s="120"/>
+      <c r="X27" s="120"/>
+      <c r="Y27" s="120"/>
+      <c r="Z27" s="120"/>
+      <c r="AA27" s="120"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -6560,35 +6581,35 @@
       <c r="J40" s="13"/>
     </row>
     <row r="43" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="121" t="s">
+      <c r="A43" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="121"/>
-      <c r="C43" s="121"/>
-      <c r="D43" s="121"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="121"/>
-      <c r="K43" s="121"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="121"/>
-      <c r="N43" s="121"/>
-      <c r="O43" s="121"/>
-      <c r="P43" s="121"/>
-      <c r="Q43" s="121"/>
-      <c r="R43" s="121"/>
-      <c r="S43" s="121"/>
-      <c r="T43" s="121"/>
-      <c r="U43" s="121"/>
-      <c r="V43" s="121"/>
-      <c r="W43" s="121"/>
-      <c r="X43" s="121"/>
-      <c r="Y43" s="121"/>
-      <c r="Z43" s="121"/>
-      <c r="AA43" s="121"/>
+      <c r="B43" s="120"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="120"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="120"/>
+      <c r="M43" s="120"/>
+      <c r="N43" s="120"/>
+      <c r="O43" s="120"/>
+      <c r="P43" s="120"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="120"/>
+      <c r="S43" s="120"/>
+      <c r="T43" s="120"/>
+      <c r="U43" s="120"/>
+      <c r="V43" s="120"/>
+      <c r="W43" s="120"/>
+      <c r="X43" s="120"/>
+      <c r="Y43" s="120"/>
+      <c r="Z43" s="120"/>
+      <c r="AA43" s="120"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -6918,13 +6939,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
     <mergeCell ref="A27:AA27"/>
     <mergeCell ref="A43:AA43"/>
     <mergeCell ref="C12:K14"/>
@@ -6937,6 +6951,13 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A17:D19"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6961,86 +6982,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
+      <c r="A1" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
-      <c r="J3" s="110" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="J3" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="114"/>
-      <c r="J4" s="110" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113"/>
+      <c r="J4" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
@@ -7048,132 +7069,132 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="108"/>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="108"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="114"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="108"/>
+      <c r="A6" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="113"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="107"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="114"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="108"/>
-      <c r="X7" s="108"/>
-      <c r="Y7" s="108"/>
-      <c r="Z7" s="108"/>
-      <c r="AA7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="113"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="117"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="108"/>
-      <c r="AA8" s="108"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="116"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="120"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="108"/>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="108"/>
-      <c r="AA9" s="108"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="119"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -7183,21 +7204,21 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="108"/>
-      <c r="Y10" s="108"/>
-      <c r="Z10" s="108"/>
-      <c r="AA10" s="108"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="107"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -7206,23 +7227,23 @@
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="108"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="108"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="108"/>
-      <c r="AA11" s="108"/>
+        <v>168</v>
+      </c>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="107"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -7230,23 +7251,23 @@
       <c r="D12" s="6"/>
       <c r="E12" s="28"/>
       <c r="F12" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="108"/>
-      <c r="Y12" s="108"/>
-      <c r="Z12" s="108"/>
-      <c r="AA12" s="108"/>
+        <v>169</v>
+      </c>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -7255,26 +7276,26 @@
       <c r="D13" s="2"/>
       <c r="E13" s="25"/>
       <c r="F13" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="108"/>
-      <c r="V13" s="108"/>
-      <c r="W13" s="108"/>
-      <c r="X13" s="108"/>
-      <c r="Y13" s="108"/>
-      <c r="Z13" s="108"/>
-      <c r="AA13" s="108"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="107"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -7283,7 +7304,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="21"/>
       <c r="F14" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -7308,9 +7329,9 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="92"/>
+      <c r="E15" s="91"/>
       <c r="F15" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -7360,9 +7381,9 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="90"/>
+      <c r="E17" s="89"/>
       <c r="F17" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -7387,9 +7408,9 @@
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="91"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -7414,9 +7435,9 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="93"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -7453,161 +7474,161 @@
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="110"/>
-      <c r="C21" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="81"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="80"/>
+      <c r="AA21" s="80"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="80" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="81"/>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="81"/>
+      <c r="C22" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="80"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="81"/>
-      <c r="O23" s="81"/>
-      <c r="P23" s="81"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="81"/>
-      <c r="W23" s="81"/>
-      <c r="X23" s="82"/>
-      <c r="Y23" s="81"/>
-      <c r="Z23" s="81"/>
-      <c r="AA23" s="81"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="80"/>
+      <c r="Z23" s="80"/>
+      <c r="AA23" s="80"/>
     </row>
     <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-      <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
-      <c r="T24" s="84"/>
-      <c r="U24" s="84"/>
-      <c r="V24" s="84"/>
-      <c r="W24" s="84"/>
-      <c r="X24" s="85"/>
-      <c r="Y24" s="81"/>
-      <c r="Z24" s="81"/>
-      <c r="AA24" s="81"/>
+      <c r="C24" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="84"/>
+      <c r="Y24" s="80"/>
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="80"/>
     </row>
     <row r="26" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="121" t="s">
+      <c r="A26" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121"/>
-      <c r="N26" s="121"/>
-      <c r="O26" s="121"/>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="121"/>
-      <c r="R26" s="121"/>
-      <c r="S26" s="121"/>
-      <c r="T26" s="121"/>
-      <c r="U26" s="121"/>
-      <c r="V26" s="121"/>
-      <c r="W26" s="121"/>
-      <c r="X26" s="121"/>
-      <c r="Y26" s="121"/>
-      <c r="Z26" s="121"/>
-      <c r="AA26" s="121"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120"/>
+      <c r="S26" s="120"/>
+      <c r="T26" s="120"/>
+      <c r="U26" s="120"/>
+      <c r="V26" s="120"/>
+      <c r="W26" s="120"/>
+      <c r="X26" s="120"/>
+      <c r="Y26" s="120"/>
+      <c r="Z26" s="120"/>
+      <c r="AA26" s="120"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -8197,35 +8218,35 @@
       <c r="J50" s="13"/>
     </row>
     <row r="53" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="121" t="s">
+      <c r="A53" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="B53" s="121"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="121"/>
-      <c r="F53" s="121"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="121"/>
-      <c r="J53" s="121"/>
-      <c r="K53" s="121"/>
-      <c r="L53" s="121"/>
-      <c r="M53" s="121"/>
-      <c r="N53" s="121"/>
-      <c r="O53" s="121"/>
-      <c r="P53" s="121"/>
-      <c r="Q53" s="121"/>
-      <c r="R53" s="121"/>
-      <c r="S53" s="121"/>
-      <c r="T53" s="121"/>
-      <c r="U53" s="121"/>
-      <c r="V53" s="121"/>
-      <c r="W53" s="121"/>
-      <c r="X53" s="121"/>
-      <c r="Y53" s="121"/>
-      <c r="Z53" s="121"/>
-      <c r="AA53" s="121"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="120"/>
+      <c r="J53" s="120"/>
+      <c r="K53" s="120"/>
+      <c r="L53" s="120"/>
+      <c r="M53" s="120"/>
+      <c r="N53" s="120"/>
+      <c r="O53" s="120"/>
+      <c r="P53" s="120"/>
+      <c r="Q53" s="120"/>
+      <c r="R53" s="120"/>
+      <c r="S53" s="120"/>
+      <c r="T53" s="120"/>
+      <c r="U53" s="120"/>
+      <c r="V53" s="120"/>
+      <c r="W53" s="120"/>
+      <c r="X53" s="120"/>
+      <c r="Y53" s="120"/>
+      <c r="Z53" s="120"/>
+      <c r="AA53" s="120"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -8744,6 +8765,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A26:AA26"/>
+    <mergeCell ref="A53:AA53"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C8:G9"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
@@ -8754,13 +8782,6 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A26:AA26"/>
-    <mergeCell ref="A53:AA53"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8784,86 +8805,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
+      <c r="A1" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
-      <c r="J3" s="110" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="J3" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="124"/>
+      <c r="W3" s="124"/>
+      <c r="X3" s="124"/>
+      <c r="Y3" s="124"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="124"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="114"/>
-      <c r="J4" s="110" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113"/>
+      <c r="J4" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="124"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
@@ -8871,132 +8892,132 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125"/>
-      <c r="X5" s="125"/>
-      <c r="Y5" s="125"/>
-      <c r="Z5" s="125"/>
-      <c r="AA5" s="125"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="124"/>
+      <c r="W5" s="124"/>
+      <c r="X5" s="124"/>
+      <c r="Y5" s="124"/>
+      <c r="Z5" s="124"/>
+      <c r="AA5" s="124"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="114"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
-      <c r="Z6" s="125"/>
-      <c r="AA6" s="125"/>
+      <c r="A6" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="113"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="124"/>
+      <c r="S6" s="124"/>
+      <c r="T6" s="124"/>
+      <c r="U6" s="124"/>
+      <c r="V6" s="124"/>
+      <c r="W6" s="124"/>
+      <c r="X6" s="124"/>
+      <c r="Y6" s="124"/>
+      <c r="Z6" s="124"/>
+      <c r="AA6" s="124"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="114"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="125"/>
-      <c r="U7" s="125"/>
-      <c r="V7" s="125"/>
-      <c r="W7" s="125"/>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="125"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="113"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="124"/>
+      <c r="U7" s="124"/>
+      <c r="V7" s="124"/>
+      <c r="W7" s="124"/>
+      <c r="X7" s="124"/>
+      <c r="Y7" s="124"/>
+      <c r="Z7" s="124"/>
+      <c r="AA7" s="124"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="117"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="125"/>
-      <c r="T8" s="125"/>
-      <c r="U8" s="125"/>
-      <c r="V8" s="125"/>
-      <c r="W8" s="125"/>
-      <c r="X8" s="125"/>
-      <c r="Y8" s="125"/>
-      <c r="Z8" s="125"/>
-      <c r="AA8" s="125"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="116"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="124"/>
+      <c r="V8" s="124"/>
+      <c r="W8" s="124"/>
+      <c r="X8" s="124"/>
+      <c r="Y8" s="124"/>
+      <c r="Z8" s="124"/>
+      <c r="AA8" s="124"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="120"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="125"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="125"/>
-      <c r="V9" s="125"/>
-      <c r="W9" s="125"/>
-      <c r="X9" s="125"/>
-      <c r="Y9" s="125"/>
-      <c r="Z9" s="125"/>
-      <c r="AA9" s="125"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="119"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="124"/>
+      <c r="S9" s="124"/>
+      <c r="T9" s="124"/>
+      <c r="U9" s="124"/>
+      <c r="V9" s="124"/>
+      <c r="W9" s="124"/>
+      <c r="X9" s="124"/>
+      <c r="Y9" s="124"/>
+      <c r="Z9" s="124"/>
+      <c r="AA9" s="124"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -9006,21 +9027,21 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="125"/>
-      <c r="W10" s="125"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="125"/>
-      <c r="AA10" s="125"/>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="124"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+      <c r="W10" s="124"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="124"/>
+      <c r="AA10" s="124"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -9029,23 +9050,23 @@
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="125"/>
-      <c r="R11" s="125"/>
-      <c r="S11" s="125"/>
-      <c r="T11" s="125"/>
-      <c r="U11" s="125"/>
-      <c r="V11" s="125"/>
-      <c r="W11" s="125"/>
-      <c r="X11" s="125"/>
-      <c r="Y11" s="125"/>
-      <c r="Z11" s="125"/>
-      <c r="AA11" s="125"/>
+        <v>178</v>
+      </c>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="124"/>
+      <c r="R11" s="124"/>
+      <c r="S11" s="124"/>
+      <c r="T11" s="124"/>
+      <c r="U11" s="124"/>
+      <c r="V11" s="124"/>
+      <c r="W11" s="124"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="124"/>
+      <c r="AA11" s="124"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -9053,49 +9074,49 @@
       <c r="D12" s="6"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="125"/>
-      <c r="R12" s="125"/>
-      <c r="S12" s="125"/>
-      <c r="T12" s="125"/>
-      <c r="U12" s="125"/>
-      <c r="V12" s="125"/>
-      <c r="W12" s="125"/>
-      <c r="X12" s="125"/>
-      <c r="Y12" s="125"/>
-      <c r="Z12" s="125"/>
-      <c r="AA12" s="125"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="124"/>
+      <c r="V12" s="124"/>
+      <c r="W12" s="124"/>
+      <c r="X12" s="124"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="124"/>
+      <c r="AA12" s="124"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="91"/>
+      <c r="E13" s="90"/>
       <c r="F13" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="125"/>
-      <c r="R13" s="125"/>
-      <c r="S13" s="125"/>
-      <c r="T13" s="125"/>
-      <c r="U13" s="125"/>
-      <c r="V13" s="125"/>
-      <c r="W13" s="125"/>
-      <c r="X13" s="125"/>
-      <c r="Y13" s="125"/>
-      <c r="Z13" s="125"/>
-      <c r="AA13" s="125"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="124"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="124"/>
+      <c r="S13" s="124"/>
+      <c r="T13" s="124"/>
+      <c r="U13" s="124"/>
+      <c r="V13" s="124"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="124"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="124"/>
+      <c r="AA13" s="124"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -9139,161 +9160,161 @@
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="81"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="80"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="82"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
+      <c r="C17" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="80"/>
+      <c r="AA17" s="80"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="82"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="81"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="80"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80"/>
     </row>
     <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="85"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
+      <c r="C19" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80"/>
     </row>
     <row r="21" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="121" t="s">
+      <c r="A21" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="121"/>
-      <c r="R21" s="121"/>
-      <c r="S21" s="121"/>
-      <c r="T21" s="121"/>
-      <c r="U21" s="121"/>
-      <c r="V21" s="121"/>
-      <c r="W21" s="121"/>
-      <c r="X21" s="121"/>
-      <c r="Y21" s="121"/>
-      <c r="Z21" s="121"/>
-      <c r="AA21" s="121"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="120"/>
+      <c r="U21" s="120"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="120"/>
+      <c r="Y21" s="120"/>
+      <c r="Z21" s="120"/>
+      <c r="AA21" s="120"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -9883,35 +9904,35 @@
       <c r="J45" s="13"/>
     </row>
     <row r="48" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="121" t="s">
+      <c r="A48" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="121"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="121"/>
-      <c r="L48" s="121"/>
-      <c r="M48" s="121"/>
-      <c r="N48" s="121"/>
-      <c r="O48" s="121"/>
-      <c r="P48" s="121"/>
-      <c r="Q48" s="121"/>
-      <c r="R48" s="121"/>
-      <c r="S48" s="121"/>
-      <c r="T48" s="121"/>
-      <c r="U48" s="121"/>
-      <c r="V48" s="121"/>
-      <c r="W48" s="121"/>
-      <c r="X48" s="121"/>
-      <c r="Y48" s="121"/>
-      <c r="Z48" s="121"/>
-      <c r="AA48" s="121"/>
+      <c r="B48" s="120"/>
+      <c r="C48" s="120"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="120"/>
+      <c r="L48" s="120"/>
+      <c r="M48" s="120"/>
+      <c r="N48" s="120"/>
+      <c r="O48" s="120"/>
+      <c r="P48" s="120"/>
+      <c r="Q48" s="120"/>
+      <c r="R48" s="120"/>
+      <c r="S48" s="120"/>
+      <c r="T48" s="120"/>
+      <c r="U48" s="120"/>
+      <c r="V48" s="120"/>
+      <c r="W48" s="120"/>
+      <c r="X48" s="120"/>
+      <c r="Y48" s="120"/>
+      <c r="Z48" s="120"/>
+      <c r="AA48" s="120"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -10430,13 +10451,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A48:AA48"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A21:AA21"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
@@ -10447,6 +10461,13 @@
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A48:AA48"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A21:AA21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10458,10 +10479,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10470,80 +10491,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
+      <c r="A1" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
-      <c r="J3" s="110" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="J3" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="114"/>
-      <c r="J4" s="110" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113"/>
+      <c r="J4" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="108"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
@@ -10551,115 +10572,115 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="114"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
+      <c r="A6" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="113"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="114"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="108"/>
-      <c r="X7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="113"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="117"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="116"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="120"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="108"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="119"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -10669,85 +10690,85 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="108"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="D11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="135"/>
+      <c r="E11" s="134"/>
       <c r="F11" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="108"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="108"/>
+        <v>194</v>
+      </c>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="18"/>
+      <c r="E12" s="95"/>
       <c r="F12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="108"/>
+        <v>196</v>
+      </c>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="58"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="2" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="108"/>
-      <c r="V13" s="108"/>
-      <c r="W13" s="108"/>
-      <c r="X13" s="108"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -10756,24 +10777,33 @@
       <c r="D14" s="2"/>
       <c r="E14" s="17"/>
       <c r="F14" s="2" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -10787,334 +10817,398 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="79"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="80" t="s">
+      <c r="B18" s="109"/>
+      <c r="C18" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="78"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="82"/>
-    </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="85"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="81"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="84"/>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C22" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127" t="s">
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127" t="s">
+      <c r="H22" s="129"/>
+      <c r="I22" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="J20" s="127"/>
-      <c r="K20" s="19" t="s">
+      <c r="J22" s="129"/>
+      <c r="K22" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="L20" s="127" t="s">
+      <c r="L22" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127" t="s">
+      <c r="M22" s="129"/>
+      <c r="N22" s="129" t="s">
         <v>100</v>
       </c>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127" t="s">
+      <c r="O22" s="129"/>
+      <c r="P22" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="129" t="s">
+      <c r="Q22" s="129"/>
+      <c r="R22" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="S20" s="129"/>
-      <c r="T20" s="129"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="129"/>
-      <c r="W20" s="129"/>
-      <c r="X20" s="129"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="128"/>
-      <c r="O21" s="128"/>
-      <c r="P21" s="128"/>
-      <c r="Q21" s="128"/>
-      <c r="R21" s="130"/>
-      <c r="S21" s="130"/>
-      <c r="T21" s="130"/>
-      <c r="U21" s="130"/>
-      <c r="V21" s="130"/>
-      <c r="W21" s="130"/>
-      <c r="X21" s="130"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="126"/>
-      <c r="R22" s="131"/>
-      <c r="S22" s="131"/>
-      <c r="T22" s="131"/>
-      <c r="U22" s="131"/>
-      <c r="V22" s="131"/>
-      <c r="W22" s="131"/>
-      <c r="X22" s="131"/>
+      <c r="S22" s="126"/>
+      <c r="T22" s="126"/>
+      <c r="U22" s="126"/>
+      <c r="V22" s="126"/>
+      <c r="W22" s="126"/>
+      <c r="X22" s="126"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
-        <v>3</v>
-      </c>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="126"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="126"/>
-      <c r="O23" s="126"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="126"/>
-      <c r="R23" s="131"/>
-      <c r="S23" s="131"/>
-      <c r="T23" s="131"/>
-      <c r="U23" s="131"/>
-      <c r="V23" s="131"/>
-      <c r="W23" s="131"/>
-      <c r="X23" s="131"/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="130"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="130"/>
+      <c r="Q23" s="130"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="127"/>
+      <c r="U23" s="127"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="127"/>
+      <c r="X23" s="127"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
-        <v>4</v>
-      </c>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="126"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="126"/>
-      <c r="O24" s="126"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="131"/>
-      <c r="S24" s="131"/>
-      <c r="T24" s="131"/>
-      <c r="U24" s="131"/>
-      <c r="V24" s="131"/>
-      <c r="W24" s="131"/>
-      <c r="X24" s="131"/>
+        <v>2</v>
+      </c>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="125"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="128"/>
+      <c r="S24" s="128"/>
+      <c r="T24" s="128"/>
+      <c r="U24" s="128"/>
+      <c r="V24" s="128"/>
+      <c r="W24" s="128"/>
+      <c r="X24" s="128"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
-        <v>5</v>
-      </c>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="126"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="126"/>
-      <c r="O25" s="126"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="126"/>
-      <c r="R25" s="131"/>
-      <c r="S25" s="131"/>
-      <c r="T25" s="131"/>
-      <c r="U25" s="131"/>
-      <c r="V25" s="131"/>
-      <c r="W25" s="131"/>
-      <c r="X25" s="131"/>
+        <v>3</v>
+      </c>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="128"/>
+      <c r="U25" s="128"/>
+      <c r="V25" s="128"/>
+      <c r="W25" s="128"/>
+      <c r="X25" s="128"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="125"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="128"/>
+      <c r="S26" s="128"/>
+      <c r="T26" s="128"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="128"/>
+      <c r="X26" s="128"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="128"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="128"/>
+      <c r="X27" s="128"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
         <v>6</v>
       </c>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="126"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="126"/>
-      <c r="O26" s="126"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
-      <c r="R26" s="131"/>
-      <c r="S26" s="131"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="131"/>
-      <c r="V26" s="131"/>
-      <c r="W26" s="131"/>
-      <c r="X26" s="131"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="125"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="125"/>
+      <c r="N28" s="125"/>
+      <c r="O28" s="125"/>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="125"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="128"/>
+      <c r="T28" s="128"/>
+      <c r="U28" s="128"/>
+      <c r="V28" s="128"/>
+      <c r="W28" s="128"/>
+      <c r="X28" s="128"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="126"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="126"/>
-      <c r="O27" s="126"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="131"/>
-      <c r="S27" s="131"/>
-      <c r="T27" s="131"/>
-      <c r="U27" s="131"/>
-      <c r="V27" s="131"/>
-      <c r="W27" s="131"/>
-      <c r="X27" s="131"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="125"/>
+      <c r="N29" s="125"/>
+      <c r="O29" s="125"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="125"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="128"/>
+      <c r="U29" s="128"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R20:X20"/>
-    <mergeCell ref="R21:X21"/>
-    <mergeCell ref="R22:X22"/>
-    <mergeCell ref="R23:X23"/>
-    <mergeCell ref="R24:X24"/>
-    <mergeCell ref="R25:X25"/>
-    <mergeCell ref="R26:X26"/>
-    <mergeCell ref="R27:X27"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
@@ -11126,50 +11220,22 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C8:G9"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R22:X22"/>
+    <mergeCell ref="R23:X23"/>
+    <mergeCell ref="R24:X24"/>
+    <mergeCell ref="R25:X25"/>
+    <mergeCell ref="R26:X26"/>
+    <mergeCell ref="R27:X27"/>
+    <mergeCell ref="R28:X28"/>
+    <mergeCell ref="R29:X29"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11183,7 +11249,7 @@
   </sheetPr>
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
@@ -11201,86 +11267,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
+      <c r="A1" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
-      <c r="J3" s="110" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
+      <c r="J3" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="114"/>
-      <c r="J4" s="110" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="113"/>
+      <c r="J4" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
@@ -11288,132 +11354,132 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="I5"/>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="108"/>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="108"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="110"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="114"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="108"/>
-      <c r="X6" s="108"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="108"/>
-      <c r="AA6" s="108"/>
+      <c r="A6" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="113"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="107"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="114"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="108"/>
-      <c r="X7" s="108"/>
-      <c r="Y7" s="108"/>
-      <c r="Z7" s="108"/>
-      <c r="AA7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="113"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="117"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="108"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="108"/>
-      <c r="AA8" s="108"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="116"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="120"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="108"/>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="108"/>
-      <c r="AA9" s="108"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="119"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -11423,67 +11489,67 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="108"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="108"/>
-      <c r="X10" s="108"/>
-      <c r="Y10" s="108"/>
-      <c r="Z10" s="108"/>
-      <c r="AA10" s="108"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="107"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="114"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="108"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="108"/>
-      <c r="W11" s="108"/>
-      <c r="X11" s="108"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="108"/>
-      <c r="AA11" s="108"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="113"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="107"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="108"/>
-      <c r="Y12" s="108"/>
-      <c r="Z12" s="108"/>
-      <c r="AA12" s="108"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -11495,23 +11561,23 @@
       <c r="H13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="112"/>
-      <c r="J13" s="114"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="108"/>
-      <c r="R13" s="108"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="108"/>
-      <c r="U13" s="108"/>
-      <c r="V13" s="108"/>
-      <c r="W13" s="108"/>
-      <c r="X13" s="108"/>
-      <c r="Y13" s="108"/>
-      <c r="Z13" s="108"/>
-      <c r="AA13" s="108"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="113"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="107"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C14" s="6"/>
@@ -11539,34 +11605,34 @@
       <c r="H15" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="112"/>
-      <c r="J15" s="114"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="113"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="63" t="s">
-        <v>131</v>
+      <c r="B16" s="62" t="s">
+        <v>130</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="P16" s="132" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q16" s="133"/>
-      <c r="R16" s="133"/>
-      <c r="S16" s="133"/>
-      <c r="T16" s="134"/>
+        <v>183</v>
+      </c>
+      <c r="P16" s="131" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q16" s="132"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="132"/>
+      <c r="T16" s="133"/>
     </row>
     <row r="17" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C17" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" s="16"/>
       <c r="H17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="112"/>
-      <c r="J17" s="114"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="113"/>
     </row>
     <row r="19" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
@@ -11575,11 +11641,11 @@
       <c r="D19" s="16"/>
     </row>
     <row r="21" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="C21" s="94" t="s">
-        <v>178</v>
-      </c>
-      <c r="L21" s="94" t="s">
-        <v>180</v>
+      <c r="C21" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" s="93" t="s">
+        <v>177</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -11595,55 +11661,55 @@
     </row>
     <row r="22" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D22" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>193</v>
-      </c>
       <c r="L22" s="2"/>
-      <c r="M22" s="95">
+      <c r="M22" s="94">
         <v>1</v>
       </c>
-      <c r="N22" s="95">
+      <c r="N22" s="94">
         <v>2</v>
       </c>
-      <c r="O22" s="95">
+      <c r="O22" s="94">
         <v>3</v>
       </c>
-      <c r="P22" s="95">
+      <c r="P22" s="94">
         <v>4</v>
       </c>
-      <c r="Q22" s="95">
+      <c r="Q22" s="94">
         <v>5</v>
       </c>
-      <c r="R22" s="95">
+      <c r="R22" s="94">
         <v>6</v>
       </c>
-      <c r="S22" s="95">
+      <c r="S22" s="94">
         <v>7</v>
       </c>
-      <c r="T22" s="95">
+      <c r="T22" s="94">
         <v>8</v>
       </c>
-      <c r="U22" s="95">
+      <c r="U22" s="94">
         <v>9</v>
       </c>
-      <c r="V22" s="95">
+      <c r="V22" s="94">
         <v>10</v>
       </c>
-      <c r="W22" s="95">
+      <c r="W22" s="94">
         <v>11</v>
       </c>
-      <c r="X22" s="95">
+      <c r="X22" s="94">
         <v>12</v>
       </c>
     </row>
@@ -11651,7 +11717,7 @@
       <c r="C23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="95" t="s">
+      <c r="L23" s="94" t="s">
         <v>1</v>
       </c>
       <c r="M23" s="3" t="s">
@@ -11675,7 +11741,7 @@
       <c r="C24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="95" t="s">
+      <c r="L24" s="94" t="s">
         <v>2</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -11699,7 +11765,7 @@
       <c r="C25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="95" t="s">
+      <c r="L25" s="94" t="s">
         <v>3</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -11721,9 +11787,9 @@
     </row>
     <row r="26" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="L26" s="95" t="s">
+        <v>176</v>
+      </c>
+      <c r="L26" s="94" t="s">
         <v>4</v>
       </c>
       <c r="M26" s="3" t="s">
@@ -11746,7 +11812,7 @@
       </c>
     </row>
     <row r="27" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="L27" s="95" t="s">
+      <c r="L27" s="94" t="s">
         <v>5</v>
       </c>
       <c r="M27" s="3" t="s">
@@ -11767,7 +11833,7 @@
       </c>
     </row>
     <row r="28" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="L28" s="95" t="s">
+      <c r="L28" s="94" t="s">
         <v>6</v>
       </c>
       <c r="M28" s="3" t="s">
@@ -11788,7 +11854,7 @@
       </c>
     </row>
     <row r="29" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="L29" s="95" t="s">
+      <c r="L29" s="94" t="s">
         <v>7</v>
       </c>
       <c r="M29" s="3" t="s">
@@ -11809,7 +11875,7 @@
       </c>
     </row>
     <row r="30" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="L30" s="95" t="s">
+      <c r="L30" s="94" t="s">
         <v>8</v>
       </c>
       <c r="M30" s="3" t="s">
@@ -11831,6 +11897,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="M3:AA13"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A3:B3"/>
@@ -11847,9 +11916,6 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G9"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="M3:AA13"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="1">
